--- a/Excel/ExclusiveConfig.xlsx
+++ b/Excel/ExclusiveConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -57,6 +57,9 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Part</t>
+  </si>
+  <si>
     <t>Type</t>
   </si>
   <si>
@@ -69,9 +72,6 @@
     <t>AttrValueList</t>
   </si>
   <si>
-    <t>MeterialId</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -84,28 +84,28 @@
     <t>int[]</t>
   </si>
   <si>
-    <t>银蛇</t>
+    <t>神圣怒斩</t>
   </si>
   <si>
     <t>14,16,15</t>
   </si>
   <si>
-    <t>4,2,6</t>
-  </si>
-  <si>
-    <t>血饮</t>
-  </si>
-  <si>
-    <t>裁决</t>
-  </si>
-  <si>
-    <t>命运</t>
-  </si>
-  <si>
-    <t>倚天</t>
-  </si>
-  <si>
-    <t>屠龙</t>
+    <t>6,4,8</t>
+  </si>
+  <si>
+    <t>神圣噬魂</t>
+  </si>
+  <si>
+    <t>神圣血饮</t>
+  </si>
+  <si>
+    <t>神圣屠龙</t>
+  </si>
+  <si>
+    <t>神圣倚天</t>
+  </si>
+  <si>
+    <t>神圣命运</t>
   </si>
 </sst>
 </file>
@@ -749,13 +749,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1082,7 +1079,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1090,12 +1087,11 @@
     <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="12.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="2" customWidth="1"/>
     <col min="10" max="10" width="8.125" style="2" customWidth="1"/>
     <col min="11" max="11" width="9.625" style="2" customWidth="1"/>
     <col min="12" max="16373" width="9" style="2"/>
@@ -1104,16 +1100,16 @@
     <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="G1" s="2"/>
       <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:11">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="G2" s="2"/>
       <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
@@ -1138,7 +1134,7 @@
       <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="2"/>
@@ -1165,7 +1161,7 @@
       <c r="H4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="2"/>
@@ -1187,13 +1183,13 @@
         <v>8</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>8</v>
+      <c r="I5" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -1205,19 +1201,21 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="E6">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="1"/>
     </row>
     <row r="7" customFormat="1" ht="27" customHeight="1" spans="3:9">
       <c r="C7">
@@ -1226,19 +1224,21 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="E7">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="1"/>
     </row>
     <row r="8" customFormat="1" ht="27" customHeight="1" spans="3:9">
       <c r="C8">
@@ -1247,19 +1247,21 @@
       <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="E8">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="1"/>
     </row>
     <row r="9" customFormat="1" ht="27" customHeight="1" spans="3:9">
       <c r="C9">
@@ -1268,19 +1270,21 @@
       <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="E9">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="1"/>
     </row>
     <row r="10" customFormat="1" ht="27" customHeight="1" spans="3:9">
       <c r="C10">
@@ -1289,19 +1293,21 @@
       <c r="D10" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="E10">
+        <v>19</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="1"/>
     </row>
     <row r="11" customFormat="1" ht="27" customHeight="1" spans="3:9">
       <c r="C11">
@@ -1310,19 +1316,21 @@
       <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="1"/>
     </row>
     <row r="12" spans="3:3">
       <c r="C12"/>
@@ -1330,23 +1338,23 @@
     <row r="13" spans="3:3">
       <c r="C13"/>
     </row>
-    <row r="14" spans="3:5">
+    <row r="14" spans="3:6">
       <c r="C14"/>
-      <c r="E14"/>
-    </row>
-    <row r="15" spans="3:5">
+      <c r="F14"/>
+    </row>
+    <row r="15" spans="3:6">
       <c r="C15"/>
-      <c r="E15"/>
-    </row>
-    <row r="16" spans="5:5">
-      <c r="E16"/>
-    </row>
-    <row r="17" spans="5:5">
-      <c r="E17"/>
+      <c r="F15"/>
+    </row>
+    <row r="16" spans="6:6">
+      <c r="F16"/>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 D4 E4 F4 G4 H4 D5 E5 F5 G5 H5 C3:C5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 I3 D4 E4 F4 G4 H4 I4 D5 E5 F5 G5 H5 I5 C3:C5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/ExclusiveConfig.xlsx
+++ b/Excel/ExclusiveConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -37,10 +37,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1 加友方属性
-2 减敌方属性
-3 回复友方
-4 伤害敌方</t>
+1 神圣套</t>
         </r>
       </text>
     </comment>
@@ -1079,7 +1076,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/ExclusiveConfig.xlsx
+++ b/Excel/ExclusiveConfig.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
+    <sheet name="定制" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -45,8 +46,40 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>admin</author>
+  </authors>
+  <commentList>
+    <comment ref="F3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1 神圣套</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -69,7 +102,25 @@
     <t>AttrValueList</t>
   </si>
   <si>
+    <t>品质</t>
+  </si>
+  <si>
+    <t>词条</t>
+  </si>
+  <si>
+    <t>套装</t>
+  </si>
+  <si>
     <t>Id</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>RuneId</t>
+  </si>
+  <si>
+    <t>SuitId</t>
   </si>
   <si>
     <t>int</t>
@@ -1073,10 +1124,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1089,28 +1140,23 @@
     <col min="7" max="7" width="12.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="2" customWidth="1"/>
     <col min="9" max="9" width="15.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.625" style="2" customWidth="1"/>
-    <col min="12" max="16373" width="9" style="2"/>
+    <col min="10" max="12" width="12.25" customWidth="1"/>
+    <col min="13" max="16373" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:11">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:9">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:11">
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:12">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -1134,14 +1180,21 @@
       <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:11">
+      <c r="J3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:12">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -1161,42 +1214,56 @@
       <c r="I4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:11">
+      <c r="J4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:12">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" customFormat="1" ht="27" customHeight="1" spans="3:9">
+        <v>16</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>15</v>
@@ -1208,18 +1275,27 @@
         <v>1</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" ht="27" customHeight="1" spans="3:9">
+        <v>19</v>
+      </c>
+      <c r="J6">
+        <v>-1</v>
+      </c>
+      <c r="K6">
+        <v>-1</v>
+      </c>
+      <c r="L6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>16</v>
@@ -1231,18 +1307,27 @@
         <v>1</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" ht="27" customHeight="1" spans="3:9">
+        <v>19</v>
+      </c>
+      <c r="J7">
+        <v>-1</v>
+      </c>
+      <c r="K7">
+        <v>-1</v>
+      </c>
+      <c r="L7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>17</v>
@@ -1254,18 +1339,27 @@
         <v>1</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" ht="27" customHeight="1" spans="3:9">
+        <v>19</v>
+      </c>
+      <c r="J8">
+        <v>-1</v>
+      </c>
+      <c r="K8">
+        <v>-1</v>
+      </c>
+      <c r="L8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>18</v>
@@ -1277,18 +1371,27 @@
         <v>1</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" ht="27" customHeight="1" spans="3:9">
+        <v>19</v>
+      </c>
+      <c r="J9">
+        <v>-1</v>
+      </c>
+      <c r="K9">
+        <v>-1</v>
+      </c>
+      <c r="L9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C10">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>19</v>
@@ -1300,18 +1403,27 @@
         <v>1</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" ht="27" customHeight="1" spans="3:9">
+        <v>19</v>
+      </c>
+      <c r="J10">
+        <v>-1</v>
+      </c>
+      <c r="K10">
+        <v>-1</v>
+      </c>
+      <c r="L10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C11">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>20</v>
@@ -1323,10 +1435,19 @@
         <v>1</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J11">
+        <v>-1</v>
+      </c>
+      <c r="K11">
+        <v>-1</v>
+      </c>
+      <c r="L11">
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="3:3">
@@ -1348,6 +1469,479 @@
     </row>
     <row r="17" spans="6:6">
       <c r="F17"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 I3 D4 E4 F4 G4 H4 I4 D5 E5 F5 G5 H5 I5 C3:C5" errorStyle="warning">
+      <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:XFD19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="12.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="2" customWidth="1"/>
+    <col min="10" max="12" width="12.25" customWidth="1"/>
+    <col min="13" max="16373" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:9">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:9">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:12">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:12">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:12">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="27" customHeight="1" spans="3:12">
+      <c r="C6">
+        <v>1001</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6" s="1">
+        <v>14</v>
+      </c>
+      <c r="L6">
+        <v>10010</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="27" customHeight="1" spans="3:12">
+      <c r="C7">
+        <v>1002</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>15</v>
+      </c>
+      <c r="L7">
+        <v>10024</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" ht="27" customHeight="1" spans="3:12">
+      <c r="C8">
+        <v>1003</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>16</v>
+      </c>
+      <c r="L8">
+        <v>10038</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" ht="27" customHeight="1" spans="3:12">
+      <c r="C9">
+        <v>2001</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9" s="1">
+        <v>14</v>
+      </c>
+      <c r="L9">
+        <v>10010</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" ht="27" customHeight="1" spans="3:12">
+      <c r="C10">
+        <v>2002</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>15</v>
+      </c>
+      <c r="L10">
+        <v>10024</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" ht="27" customHeight="1" spans="3:12">
+      <c r="C11">
+        <v>2003</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>16</v>
+      </c>
+      <c r="L11">
+        <v>10038</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="27" customHeight="1" spans="6:6">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" customFormat="1" ht="27" customHeight="1" spans="6:6">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="3:16384">
+      <c r="C14"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="XET14"/>
+      <c r="XEU14"/>
+      <c r="XEV14"/>
+      <c r="XEW14"/>
+      <c r="XEX14"/>
+      <c r="XEY14"/>
+      <c r="XEZ14"/>
+      <c r="XFA14"/>
+      <c r="XFB14"/>
+      <c r="XFC14"/>
+      <c r="XFD14"/>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="3:16384">
+      <c r="C15"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="XET15"/>
+      <c r="XEU15"/>
+      <c r="XEV15"/>
+      <c r="XEW15"/>
+      <c r="XEX15"/>
+      <c r="XEY15"/>
+      <c r="XEZ15"/>
+      <c r="XFA15"/>
+      <c r="XFB15"/>
+      <c r="XFC15"/>
+      <c r="XFD15"/>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="3:16384">
+      <c r="C16"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16"/>
+      <c r="G16" s="1"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="XET16"/>
+      <c r="XEU16"/>
+      <c r="XEV16"/>
+      <c r="XEW16"/>
+      <c r="XEX16"/>
+      <c r="XEY16"/>
+      <c r="XEZ16"/>
+      <c r="XFA16"/>
+      <c r="XFB16"/>
+      <c r="XFC16"/>
+      <c r="XFD16"/>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="3:16384">
+      <c r="C17"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17"/>
+      <c r="G17" s="1"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="XET17"/>
+      <c r="XEU17"/>
+      <c r="XEV17"/>
+      <c r="XEW17"/>
+      <c r="XEX17"/>
+      <c r="XEY17"/>
+      <c r="XEZ17"/>
+      <c r="XFA17"/>
+      <c r="XFB17"/>
+      <c r="XFC17"/>
+      <c r="XFD17"/>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="3:16384">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18"/>
+      <c r="G18" s="1"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="XET18"/>
+      <c r="XEU18"/>
+      <c r="XEV18"/>
+      <c r="XEW18"/>
+      <c r="XEX18"/>
+      <c r="XEY18"/>
+      <c r="XEZ18"/>
+      <c r="XFA18"/>
+      <c r="XFB18"/>
+      <c r="XFC18"/>
+      <c r="XFD18"/>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="3:16384">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19"/>
+      <c r="G19" s="1"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="XET19"/>
+      <c r="XEU19"/>
+      <c r="XEV19"/>
+      <c r="XEW19"/>
+      <c r="XEX19"/>
+      <c r="XEY19"/>
+      <c r="XEZ19"/>
+      <c r="XFA19"/>
+      <c r="XFB19"/>
+      <c r="XFC19"/>
+      <c r="XFD19"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/ExclusiveConfig.xlsx
+++ b/Excel/ExclusiveConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -1488,7 +1488,7 @@
   <dimension ref="A1:XFD19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1621,7 +1621,7 @@
     </row>
     <row r="6" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C6">
-        <v>1001</v>
+        <v>1000001</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="7" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C7">
-        <v>1002</v>
+        <v>1000002</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="8" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C8">
-        <v>1003</v>
+        <v>1000003</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="9" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C9">
-        <v>2001</v>
+        <v>1000004</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="10" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C10">
-        <v>2002</v>
+        <v>1000005</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="11" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C11">
-        <v>2003</v>
+        <v>1000006</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>

--- a/Excel/ExclusiveConfig.xlsx
+++ b/Excel/ExclusiveConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>神圣命运</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
 </sst>
 </file>
@@ -1488,7 +1491,7 @@
   <dimension ref="A1:XFD19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1587,7 +1590,9 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:12">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="C5" s="3" t="s">
         <v>14</v>
       </c>

--- a/Excel/ExclusiveConfig.xlsx
+++ b/Excel/ExclusiveConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -1129,8 +1129,8 @@
   <sheetPr/>
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1490,7 +1490,7 @@
   <sheetPr/>
   <dimension ref="A1:XFD19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>

--- a/Excel/ExclusiveConfig.xlsx
+++ b/Excel/ExclusiveConfig.xlsx
@@ -4,13 +4,26 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
     <sheet name="定制" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -162,7 +175,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1130,7 +1143,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E11"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/ExclusiveConfig.xlsx
+++ b/Excel/ExclusiveConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -109,12 +109,6 @@
     <t>Level</t>
   </si>
   <si>
-    <t>AttrIdList</t>
-  </si>
-  <si>
-    <t>AttrValueList</t>
-  </si>
-  <si>
     <t>品质</t>
   </si>
   <si>
@@ -142,16 +136,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>int[]</t>
-  </si>
-  <si>
     <t>神圣怒斩</t>
-  </si>
-  <si>
-    <t>14,16,15</t>
-  </si>
-  <si>
-    <t>6,4,8</t>
   </si>
   <si>
     <t>神圣噬魂</t>
@@ -820,7 +805,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1140,10 +1124,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1154,25 +1138,19 @@
     <col min="4" max="5" width="12.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="2" customWidth="1"/>
-    <col min="10" max="12" width="12.25" customWidth="1"/>
-    <col min="13" max="16373" width="9" style="2"/>
+    <col min="8" max="10" width="12.25" customWidth="1"/>
+    <col min="11" max="16371" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" spans="1:2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:9">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:12">
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:10">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -1199,18 +1177,12 @@
       <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:12">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:10">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -1225,61 +1197,49 @@
         <v>4</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:12">
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:10">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="27" customHeight="1" spans="3:10">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
       </c>
       <c r="E6">
         <v>15</v>
@@ -1290,28 +1250,22 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>19</v>
+      <c r="H6">
+        <v>-1</v>
+      </c>
+      <c r="I6">
+        <v>-1</v>
       </c>
       <c r="J6">
         <v>-1</v>
       </c>
-      <c r="K6">
-        <v>-1</v>
-      </c>
-      <c r="L6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" ht="27" customHeight="1" spans="3:12">
+    </row>
+    <row r="7" customFormat="1" ht="27" customHeight="1" spans="3:10">
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>16</v>
@@ -1322,28 +1276,22 @@
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>19</v>
+      <c r="H7">
+        <v>-1</v>
+      </c>
+      <c r="I7">
+        <v>-1</v>
       </c>
       <c r="J7">
         <v>-1</v>
       </c>
-      <c r="K7">
-        <v>-1</v>
-      </c>
-      <c r="L7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" ht="27" customHeight="1" spans="3:12">
+    </row>
+    <row r="8" customFormat="1" ht="27" customHeight="1" spans="3:10">
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>17</v>
@@ -1354,28 +1302,22 @@
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>19</v>
+      <c r="H8">
+        <v>-1</v>
+      </c>
+      <c r="I8">
+        <v>-1</v>
       </c>
       <c r="J8">
         <v>-1</v>
       </c>
-      <c r="K8">
-        <v>-1</v>
-      </c>
-      <c r="L8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" ht="27" customHeight="1" spans="3:12">
+    </row>
+    <row r="9" customFormat="1" ht="27" customHeight="1" spans="3:10">
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>18</v>
@@ -1386,28 +1328,22 @@
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>19</v>
+      <c r="H9">
+        <v>-1</v>
+      </c>
+      <c r="I9">
+        <v>-1</v>
       </c>
       <c r="J9">
         <v>-1</v>
       </c>
-      <c r="K9">
-        <v>-1</v>
-      </c>
-      <c r="L9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" ht="27" customHeight="1" spans="3:12">
+    </row>
+    <row r="10" customFormat="1" ht="27" customHeight="1" spans="3:10">
       <c r="C10">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>19</v>
@@ -1418,28 +1354,22 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>19</v>
+      <c r="H10">
+        <v>-1</v>
+      </c>
+      <c r="I10">
+        <v>-1</v>
       </c>
       <c r="J10">
         <v>-1</v>
       </c>
-      <c r="K10">
-        <v>-1</v>
-      </c>
-      <c r="L10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" ht="27" customHeight="1" spans="3:12">
+    </row>
+    <row r="11" customFormat="1" ht="27" customHeight="1" spans="3:10">
       <c r="C11">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>20</v>
@@ -1450,19 +1380,13 @@
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>19</v>
+      <c r="H11">
+        <v>-1</v>
+      </c>
+      <c r="I11">
+        <v>-1</v>
       </c>
       <c r="J11">
-        <v>-1</v>
-      </c>
-      <c r="K11">
-        <v>-1</v>
-      </c>
-      <c r="L11">
         <v>-1</v>
       </c>
     </row>
@@ -1488,7 +1412,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 I3 D4 E4 F4 G4 H4 I4 D5 E5 F5 G5 H5 I5 C3:C5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 D4 E4 F4 G4 D5 E5 F5 G5 C3:C5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
@@ -1501,10 +1425,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD19"/>
+  <dimension ref="A1:XFB19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H1" sqref="H$1:I$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1515,25 +1439,19 @@
     <col min="4" max="5" width="12.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="2" customWidth="1"/>
-    <col min="10" max="12" width="12.25" customWidth="1"/>
-    <col min="13" max="16373" width="9" style="2"/>
+    <col min="8" max="10" width="12.25" customWidth="1"/>
+    <col min="11" max="16371" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" spans="1:2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:9">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:12">
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:10">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -1560,18 +1478,12 @@
       <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:12">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:10">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -1586,63 +1498,51 @@
         <v>4</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:12">
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:10">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" ht="27" customHeight="1" spans="3:12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="27" customHeight="1" spans="3:10">
       <c r="C6">
         <v>1000001</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>15</v>
@@ -1653,28 +1553,22 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>19</v>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1">
+        <v>14</v>
       </c>
       <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6" s="1">
-        <v>14</v>
-      </c>
-      <c r="L6">
         <v>10010</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="27" customHeight="1" spans="3:12">
+    <row r="7" customFormat="1" ht="27" customHeight="1" spans="3:10">
       <c r="C7">
         <v>1000002</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>15</v>
@@ -1685,28 +1579,22 @@
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>19</v>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>15</v>
       </c>
       <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="K7">
-        <v>15</v>
-      </c>
-      <c r="L7">
         <v>10024</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="27" customHeight="1" spans="3:12">
+    <row r="8" customFormat="1" ht="27" customHeight="1" spans="3:10">
       <c r="C8">
         <v>1000003</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>15</v>
@@ -1717,28 +1605,22 @@
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>19</v>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>16</v>
       </c>
       <c r="J8">
-        <v>5</v>
-      </c>
-      <c r="K8">
-        <v>16</v>
-      </c>
-      <c r="L8">
         <v>10038</v>
       </c>
     </row>
-    <row r="9" customFormat="1" ht="27" customHeight="1" spans="3:12">
+    <row r="9" customFormat="1" ht="27" customHeight="1" spans="3:10">
       <c r="C9">
         <v>1000004</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>16</v>
@@ -1749,28 +1631,22 @@
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>19</v>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1">
+        <v>14</v>
       </c>
       <c r="J9">
-        <v>5</v>
-      </c>
-      <c r="K9" s="1">
-        <v>14</v>
-      </c>
-      <c r="L9">
         <v>10010</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="27" customHeight="1" spans="3:12">
+    <row r="10" customFormat="1" ht="27" customHeight="1" spans="3:10">
       <c r="C10">
         <v>1000005</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>16</v>
@@ -1781,28 +1657,22 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>19</v>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>15</v>
       </c>
       <c r="J10">
-        <v>5</v>
-      </c>
-      <c r="K10">
-        <v>15</v>
-      </c>
-      <c r="L10">
         <v>10024</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="27" customHeight="1" spans="3:12">
+    <row r="11" customFormat="1" ht="27" customHeight="1" spans="3:10">
       <c r="C11">
         <v>1000006</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>16</v>
@@ -1813,19 +1683,13 @@
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>19</v>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>16</v>
       </c>
       <c r="J11">
-        <v>5</v>
-      </c>
-      <c r="K11">
-        <v>16</v>
-      </c>
-      <c r="L11">
         <v>10038</v>
       </c>
     </row>
@@ -1835,15 +1699,17 @@
     <row r="13" customFormat="1" ht="27" customHeight="1" spans="6:6">
       <c r="F13" s="1"/>
     </row>
-    <row r="14" s="2" customFormat="1" spans="3:16384">
+    <row r="14" s="2" customFormat="1" spans="3:16382">
       <c r="C14"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
+      <c r="H14"/>
+      <c r="I14"/>
       <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
+      <c r="XER14"/>
+      <c r="XES14"/>
       <c r="XET14"/>
       <c r="XEU14"/>
       <c r="XEV14"/>
@@ -1853,18 +1719,18 @@
       <c r="XEZ14"/>
       <c r="XFA14"/>
       <c r="XFB14"/>
-      <c r="XFC14"/>
-      <c r="XFD14"/>
-    </row>
-    <row r="15" s="2" customFormat="1" spans="3:16384">
+    </row>
+    <row r="15" s="2" customFormat="1" spans="3:16382">
       <c r="C15"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
+      <c r="H15"/>
+      <c r="I15"/>
       <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
+      <c r="XER15"/>
+      <c r="XES15"/>
       <c r="XET15"/>
       <c r="XEU15"/>
       <c r="XEV15"/>
@@ -1874,18 +1740,18 @@
       <c r="XEZ15"/>
       <c r="XFA15"/>
       <c r="XFB15"/>
-      <c r="XFC15"/>
-      <c r="XFD15"/>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="3:16384">
+    </row>
+    <row r="16" s="2" customFormat="1" spans="3:16382">
       <c r="C16"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16"/>
       <c r="G16" s="1"/>
+      <c r="H16"/>
+      <c r="I16"/>
       <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
+      <c r="XER16"/>
+      <c r="XES16"/>
       <c r="XET16"/>
       <c r="XEU16"/>
       <c r="XEV16"/>
@@ -1895,18 +1761,18 @@
       <c r="XEZ16"/>
       <c r="XFA16"/>
       <c r="XFB16"/>
-      <c r="XFC16"/>
-      <c r="XFD16"/>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="3:16384">
+    </row>
+    <row r="17" s="2" customFormat="1" spans="3:16382">
       <c r="C17"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17"/>
       <c r="G17" s="1"/>
+      <c r="H17"/>
+      <c r="I17"/>
       <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
+      <c r="XER17"/>
+      <c r="XES17"/>
       <c r="XET17"/>
       <c r="XEU17"/>
       <c r="XEV17"/>
@@ -1916,18 +1782,18 @@
       <c r="XEZ17"/>
       <c r="XFA17"/>
       <c r="XFB17"/>
-      <c r="XFC17"/>
-      <c r="XFD17"/>
-    </row>
-    <row r="18" s="2" customFormat="1" spans="3:16384">
+    </row>
+    <row r="18" s="2" customFormat="1" spans="3:16382">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18"/>
       <c r="G18" s="1"/>
+      <c r="H18"/>
+      <c r="I18"/>
       <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
+      <c r="XER18"/>
+      <c r="XES18"/>
       <c r="XET18"/>
       <c r="XEU18"/>
       <c r="XEV18"/>
@@ -1937,18 +1803,18 @@
       <c r="XEZ18"/>
       <c r="XFA18"/>
       <c r="XFB18"/>
-      <c r="XFC18"/>
-      <c r="XFD18"/>
-    </row>
-    <row r="19" s="2" customFormat="1" spans="3:16384">
+    </row>
+    <row r="19" s="2" customFormat="1" spans="3:16382">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19"/>
       <c r="G19" s="1"/>
+      <c r="H19"/>
+      <c r="I19"/>
       <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
+      <c r="XER19"/>
+      <c r="XES19"/>
       <c r="XET19"/>
       <c r="XEU19"/>
       <c r="XEV19"/>
@@ -1958,12 +1824,10 @@
       <c r="XEZ19"/>
       <c r="XFA19"/>
       <c r="XFB19"/>
-      <c r="XFC19"/>
-      <c r="XFD19"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 I3 D4 E4 F4 G4 H4 I4 D5 E5 F5 G5 H5 I5 C3:C5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 D4 E4 F4 G4 D5 E5 F5 G5 C3:C5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/ExclusiveConfig.xlsx
+++ b/Excel/ExclusiveConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -1126,8 +1126,8 @@
   <sheetPr/>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
